--- a/EPRTables.xlsx
+++ b/EPRTables.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ERP\OriginalERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279EE029-F5E3-45B5-AB9D-5743FF8882A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7794DE-DC74-4DE4-AD08-9487D95BB435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="20415" windowHeight="10920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="20415" windowHeight="10920" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Finance" sheetId="2" r:id="rId2"/>
-    <sheet name="AgreeCulture" sheetId="3" r:id="rId3"/>
+    <sheet name="AgriCulture" sheetId="3" r:id="rId3"/>
+    <sheet name="CaneBilling" sheetId="4" r:id="rId4"/>
+    <sheet name="Cane Yard" sheetId="5" r:id="rId5"/>
+    <sheet name="Cane Development" sheetId="6" r:id="rId6"/>
+    <sheet name="Security" sheetId="7" r:id="rId7"/>
+    <sheet name="Sugar Godown" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="432">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -1314,6 +1319,15 @@
   </si>
   <si>
     <t>TRDedIncomes</t>
+  </si>
+  <si>
+    <t>sugInvoice</t>
+  </si>
+  <si>
+    <t>sugInvoiceMain</t>
+  </si>
+  <si>
+    <t>Saletypemaster</t>
   </si>
 </sst>
 </file>
@@ -1357,10 +1371,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3772,231 +3785,231 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>422</v>
       </c>
     </row>
@@ -4009,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFEA8F8-F367-46D5-A8B5-281FD6084DE5}">
   <dimension ref="A2:A98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,4 +4439,1439 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D208EDE-2F73-4948-9DD2-E75247C96751}">
+  <dimension ref="A1:A91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03353E9-AE37-4C01-9F6B-F777E33D0296}">
+  <dimension ref="A1:A86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F1C988-7930-470D-B758-D7B89C9280B9}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DDE909-DC68-47B8-A309-2B3786BFE326}">
+  <dimension ref="A1:A65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B289457-E70D-4180-8C9B-6655C89F48FC}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EPRTables.xlsx
+++ b/EPRTables.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ERP\OriginalERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Repo\OriginalERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7794DE-DC74-4DE4-AD08-9487D95BB435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063C09BF-93E4-4409-B19D-524F3AB022D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="20415" windowHeight="10920" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="390" windowWidth="20415" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Finance" sheetId="2" r:id="rId2"/>
-    <sheet name="AgriCulture" sheetId="3" r:id="rId3"/>
-    <sheet name="CaneBilling" sheetId="4" r:id="rId4"/>
-    <sheet name="Cane Yard" sheetId="5" r:id="rId5"/>
-    <sheet name="Cane Development" sheetId="6" r:id="rId6"/>
-    <sheet name="Security" sheetId="7" r:id="rId7"/>
-    <sheet name="Sugar Godown" sheetId="8" r:id="rId8"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Masters" sheetId="9" r:id="rId2"/>
+    <sheet name="Finance" sheetId="2" r:id="rId3"/>
+    <sheet name="AgriCulture" sheetId="3" r:id="rId4"/>
+    <sheet name="CaneBilling" sheetId="4" r:id="rId5"/>
+    <sheet name="Cane Yard" sheetId="5" r:id="rId6"/>
+    <sheet name="Cane Development" sheetId="6" r:id="rId7"/>
+    <sheet name="Security" sheetId="7" r:id="rId8"/>
+    <sheet name="Sugar Godown" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="437">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -1328,6 +1329,21 @@
   </si>
   <si>
     <t>Saletypemaster</t>
+  </si>
+  <si>
+    <t>MasterDB</t>
+  </si>
+  <si>
+    <t>CaneYard</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>SugarSale</t>
   </si>
 </sst>
 </file>
@@ -1351,12 +1367,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1371,9 +1393,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,6 +1412,141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544F079A-F812-01B9-7018-311FA64FC88B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$43" spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1933575" y="8191500"/>
+              <a:ext cx="1666875" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Picture 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBE79F5-3038-427F-873C-FD43F0450712}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$43" spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1933575" y="9144000"/>
+              <a:ext cx="1666875" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1656,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A421"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,6 +3934,909 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682E907D-50C3-488A-A0F9-D28D1594195E}">
+  <dimension ref="A1:B144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B63" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B67" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B68" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B69" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B70" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>407</v>
+      </c>
+      <c r="B74" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>410</v>
+      </c>
+      <c r="B75" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>413</v>
+      </c>
+      <c r="B76" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>416</v>
+      </c>
+      <c r="B77" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D0EDC8-F1B9-47B5-8115-E1787B77BF6E}">
   <dimension ref="A1:A49"/>
   <sheetViews>
@@ -4018,7 +5079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFEA8F8-F367-46D5-A8B5-281FD6084DE5}">
   <dimension ref="A2:A98"/>
   <sheetViews>
@@ -4441,7 +5502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D208EDE-2F73-4948-9DD2-E75247C96751}">
   <dimension ref="A1:A91"/>
   <sheetViews>
@@ -4904,7 +5965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03353E9-AE37-4C01-9F6B-F777E33D0296}">
   <dimension ref="A1:A86"/>
   <sheetViews>
@@ -5317,7 +6378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F1C988-7930-470D-B758-D7B89C9280B9}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -5375,7 +6436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DDE909-DC68-47B8-A309-2B3786BFE326}">
   <dimension ref="A1:A65"/>
   <sheetViews>
@@ -5693,11 +6754,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B289457-E70D-4180-8C9B-6655C89F48FC}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
